--- a/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5655</v>
+        <v>5736</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003597121234801936</v>
+        <v>0.003597121234801937</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01773571033738749</v>
+        <v>0.01799011705731033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>4813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2289</v>
+        <v>2403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8880</v>
+        <v>9198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01522715267660744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007243616582887387</v>
+        <v>0.00760263152316497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02809549439721248</v>
+        <v>0.02910151718320637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>5960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2968</v>
+        <v>2885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11483</v>
+        <v>11121</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.009386632839541045</v>
+        <v>0.009386632839541047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004674567256437762</v>
+        <v>0.004543650436968511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01808664629920104</v>
+        <v>0.01751548808358116</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5230</v>
+        <v>5485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17793</v>
+        <v>18069</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0322868528463223</v>
+        <v>0.03228685284632231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01640299705558708</v>
+        <v>0.0172019406825659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05580544206382267</v>
+        <v>0.05667127375915548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -833,19 +833,19 @@
         <v>26868</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19266</v>
+        <v>18998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37943</v>
+        <v>37030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0850088545757294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06095808803541238</v>
+        <v>0.06010728003637296</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1200511839175782</v>
+        <v>0.1171619663247914</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -854,19 +854,19 @@
         <v>37162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28224</v>
+        <v>28155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49792</v>
+        <v>49589</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05853223682183559</v>
+        <v>0.0585322368218356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04445429482538994</v>
+        <v>0.04434452055338888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07842430184221343</v>
+        <v>0.07810470492906202</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>47857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36338</v>
+        <v>36349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61003</v>
+        <v>61777</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1500942646921546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1139691431647005</v>
+        <v>0.1140010209774416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1913245665507216</v>
+        <v>0.193750949658772</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -904,19 +904,19 @@
         <v>90968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77744</v>
+        <v>78133</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>105929</v>
+        <v>105321</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2878174408052557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2459765190255326</v>
+        <v>0.2472088835752818</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3351538778586829</v>
+        <v>0.3332292794878782</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>206</v>
@@ -925,19 +925,19 @@
         <v>138825</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123143</v>
+        <v>120576</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160114</v>
+        <v>157978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2186538322512034</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1939547934330876</v>
+        <v>0.1899114273778822</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2521859741544131</v>
+        <v>0.2488210317898542</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>259547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245430</v>
+        <v>245342</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272189</v>
+        <v>272978</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8140217612267212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7697481547542373</v>
+        <v>0.7694725674779013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8536729294523607</v>
+        <v>0.8561454377388348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>332</v>
@@ -975,19 +975,19 @@
         <v>193412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177720</v>
+        <v>178732</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206668</v>
+        <v>207531</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6119465519424075</v>
+        <v>0.6119465519424074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.562296699231648</v>
+        <v>0.5654978640338528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6538853063644445</v>
+        <v>0.6566167636139203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>599</v>
@@ -996,19 +996,19 @@
         <v>452959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>429754</v>
+        <v>431809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>471331</v>
+        <v>472123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.71342729808742</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6768777077355618</v>
+        <v>0.6801155439583086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.74236359495506</v>
+        <v>0.7436109616762241</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>13171</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6658</v>
+        <v>6673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23864</v>
+        <v>23640</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02482135440954131</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01254774420441638</v>
+        <v>0.01257613781293691</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04497153899441605</v>
+        <v>0.04454880071863745</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1121,19 +1121,19 @@
         <v>29340</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21010</v>
+        <v>20433</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40662</v>
+        <v>39774</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05368761685944649</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03844570530801936</v>
+        <v>0.03738843339521898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07440547387630668</v>
+        <v>0.07278059820117475</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -1142,19 +1142,19 @@
         <v>42511</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32009</v>
+        <v>31282</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55478</v>
+        <v>57292</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03946683170983808</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02971626189865291</v>
+        <v>0.0290418150496985</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05150444268964455</v>
+        <v>0.053188511057201</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>13372</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6578</v>
+        <v>6569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24193</v>
+        <v>23975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02519864123111825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01239666167813498</v>
+        <v>0.01237979988964544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04559176561893109</v>
+        <v>0.04518090337907314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1192,19 +1192,19 @@
         <v>28700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20458</v>
+        <v>19998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41025</v>
+        <v>38982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05251629774956161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03743487578652602</v>
+        <v>0.03659363017756621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07506854339115801</v>
+        <v>0.07133115817106905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1213,19 +1213,19 @@
         <v>42071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30048</v>
+        <v>31659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55081</v>
+        <v>57075</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03905842370668014</v>
+        <v>0.03905842370668013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02789568089101023</v>
+        <v>0.02939164407975718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05113659257412372</v>
+        <v>0.0529879265445623</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>118750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98680</v>
+        <v>98343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142494</v>
+        <v>141224</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2237833945086092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1859622138027129</v>
+        <v>0.1853271122499211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2685288995444069</v>
+        <v>0.2661356909927756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1263,19 +1263,19 @@
         <v>191166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171258</v>
+        <v>171611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>210585</v>
+        <v>212337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3498037806113091</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3133757468019878</v>
+        <v>0.3140226198281509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3853389193343817</v>
+        <v>0.3885437860595849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -1284,19 +1284,19 @@
         <v>309916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>281122</v>
+        <v>278899</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>339725</v>
+        <v>337825</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2877206190538598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2609886768184773</v>
+        <v>0.2589250277707704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3153949545571233</v>
+        <v>0.3136313117842693</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>385354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>359743</v>
+        <v>357809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>408891</v>
+        <v>407003</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7261966098507312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6779324279727108</v>
+        <v>0.6742883062907693</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7705514316782847</v>
+        <v>0.7669940283040045</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>375</v>
@@ -1334,19 +1334,19 @@
         <v>297289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>277224</v>
+        <v>276657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>319603</v>
+        <v>319185</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5439923047796827</v>
+        <v>0.5439923047796829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5072774955675159</v>
+        <v>0.5062401062839341</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5848236951858521</v>
+        <v>0.5840597499347888</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>638</v>
@@ -1355,19 +1355,19 @@
         <v>682643</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>651115</v>
+        <v>648905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>715284</v>
+        <v>714942</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6337541255296221</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6044848413941257</v>
+        <v>0.6024327526043631</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6640582959502991</v>
+        <v>0.6637405198425144</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>5265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2242</v>
+        <v>2422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10890</v>
+        <v>10705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01677369406854031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007141392067053314</v>
+        <v>0.007714658182529263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03469267262215862</v>
+        <v>0.03410148637580551</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1480,19 +1480,19 @@
         <v>18187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12146</v>
+        <v>12810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25908</v>
+        <v>26346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05155957470735719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03443325785917039</v>
+        <v>0.03631613803098417</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07344676529638745</v>
+        <v>0.07469072424708946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1501,19 +1501,19 @@
         <v>23453</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16092</v>
+        <v>16423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32389</v>
+        <v>32846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03517983242091002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02413814477794067</v>
+        <v>0.02463480755207564</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04858446307885377</v>
+        <v>0.04926989308762422</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>7459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3464</v>
+        <v>3335</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13539</v>
+        <v>14123</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02376087828408431</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01103409230871532</v>
+        <v>0.01062305332871381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04313119692170727</v>
+        <v>0.04499065945373959</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -1551,19 +1551,19 @@
         <v>20649</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13768</v>
+        <v>14405</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29597</v>
+        <v>30364</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05853766935831742</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03903035790067977</v>
+        <v>0.04083852650809355</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08390600804929761</v>
+        <v>0.08607968656604786</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>38</v>
@@ -1572,19 +1572,19 @@
         <v>28107</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20520</v>
+        <v>19793</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>39640</v>
+        <v>38008</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04216220710510915</v>
+        <v>0.04216220710510916</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03078077190049825</v>
+        <v>0.02968965831189904</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05946219583499103</v>
+        <v>0.05701388726164616</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>50004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38153</v>
+        <v>39452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62923</v>
+        <v>63443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1592959097507424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1215433719193782</v>
+        <v>0.1256818474124538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2004530168137497</v>
+        <v>0.2021084411258166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1622,19 +1622,19 @@
         <v>99044</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85673</v>
+        <v>85118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114591</v>
+        <v>114139</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2807849805266266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2428780093271963</v>
+        <v>0.2413041998914643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3248595300646535</v>
+        <v>0.3235780903407066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -1643,19 +1643,19 @@
         <v>149048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130306</v>
+        <v>131433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169399</v>
+        <v>167391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2235790212872804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1954640833321706</v>
+        <v>0.1971552026953332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2541055239546702</v>
+        <v>0.2510939973296867</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>251178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237082</v>
+        <v>236796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264060</v>
+        <v>264297</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8001695178966328</v>
+        <v>0.8001695178966329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7552652979241949</v>
+        <v>0.7543520421525213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8412061904177321</v>
+        <v>0.8419615534483531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>329</v>
@@ -1693,19 +1693,19 @@
         <v>214861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199002</v>
+        <v>199090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230145</v>
+        <v>230655</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6091177754076987</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5641581405159094</v>
+        <v>0.5644072189044881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6524473762147581</v>
+        <v>0.6538926344767041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -1714,19 +1714,19 @@
         <v>466039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>443821</v>
+        <v>447089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>485634</v>
+        <v>484957</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6990789391867004</v>
+        <v>0.6990789391867003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6657505608275479</v>
+        <v>0.6706529995603725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7284728237790052</v>
+        <v>0.7274571833677919</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>2041</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5936</v>
+        <v>5479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005481477140570478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001477291321420934</v>
+        <v>0.001527118063363542</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01594245443273245</v>
+        <v>0.01471502008528502</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1839,19 +1839,19 @@
         <v>19483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12112</v>
+        <v>11829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37364</v>
+        <v>35528</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04629535118531049</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0287808751547622</v>
+        <v>0.02810748448601378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08878505818994398</v>
+        <v>0.08442222644707914</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1860,19 +1860,19 @@
         <v>21524</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13482</v>
+        <v>13427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39846</v>
+        <v>37666</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02713541846925954</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01699689646181669</v>
+        <v>0.01692735559418528</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05023416236911929</v>
+        <v>0.04748696780845246</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>10261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4359</v>
+        <v>4323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22886</v>
+        <v>23727</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02755764335381301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01170621835127694</v>
+        <v>0.01160857305446038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06146063629336693</v>
+        <v>0.06372110913958196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1910,19 +1910,19 @@
         <v>24546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17217</v>
+        <v>17278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33635</v>
+        <v>34249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05832631614837509</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0409122038839459</v>
+        <v>0.04105635804881935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07992375139345181</v>
+        <v>0.08138277129725413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -1931,19 +1931,19 @@
         <v>34807</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25232</v>
+        <v>24723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50112</v>
+        <v>49550</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04388206859030792</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03181061271524344</v>
+        <v>0.03116889692408125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06317774223469838</v>
+        <v>0.06246852204201526</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>89995</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69696</v>
+        <v>72706</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117902</v>
+        <v>116738</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.241685931024645</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1871728972072129</v>
+        <v>0.1952548223853285</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3166310322339668</v>
+        <v>0.3135058359222269</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>156</v>
@@ -1981,19 +1981,19 @@
         <v>110116</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92842</v>
+        <v>93759</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>128472</v>
+        <v>127006</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2616631583910213</v>
+        <v>0.2616631583910212</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2206149578578268</v>
+        <v>0.2227948737776747</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3052802479922239</v>
+        <v>0.3017963329274149</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>220</v>
@@ -2002,19 +2002,19 @@
         <v>200111</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>175129</v>
+        <v>174390</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229121</v>
+        <v>229710</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2522849177522268</v>
+        <v>0.2522849177522267</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2207890038030514</v>
+        <v>0.2198579026410866</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2888580832950428</v>
+        <v>0.2896011275291676</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>270066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>241971</v>
+        <v>243833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>290214</v>
+        <v>290276</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7252749484809717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6498255269885238</v>
+        <v>0.6548248152292407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.779384862760977</v>
+        <v>0.7795502482847402</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>380</v>
@@ -2052,19 +2052,19 @@
         <v>266688</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245478</v>
+        <v>247532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285150</v>
+        <v>287149</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6337151742752932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5833141261748772</v>
+        <v>0.5881941580922467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6775856753689878</v>
+        <v>0.682335224361908</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>596</v>
@@ -2073,19 +2073,19 @@
         <v>536754</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>503639</v>
+        <v>507486</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>564402</v>
+        <v>563788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6766975951882058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6349490859703339</v>
+        <v>0.6397985245236879</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.711554117540991</v>
+        <v>0.7107805985805798</v>
       </c>
     </row>
     <row r="23">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7405</v>
+        <v>8510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009955971681320178</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03600393934473972</v>
+        <v>0.04138021583701259</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2198,19 +2198,19 @@
         <v>4904</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2343</v>
+        <v>2401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8805</v>
+        <v>8590</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02158303512707985</v>
+        <v>0.02158303512707984</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01031020939255533</v>
+        <v>0.01056849443743097</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03875196109355673</v>
+        <v>0.03780710116317508</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2219,19 +2219,19 @@
         <v>6952</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3756</v>
+        <v>3961</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12208</v>
+        <v>12830</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01605891765334016</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008677003921472019</v>
+        <v>0.009150541360446945</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02820204544489461</v>
+        <v>0.02963968567833798</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>6364</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2807</v>
+        <v>3102</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11294</v>
+        <v>11579</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03094519307243692</v>
+        <v>0.03094519307243693</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01364944307050908</v>
+        <v>0.01508452278956496</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05491284933008975</v>
+        <v>0.05629960059659338</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2269,19 +2269,19 @@
         <v>17743</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12612</v>
+        <v>13019</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24285</v>
+        <v>25823</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07808734225899401</v>
+        <v>0.07808734225899398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05550736081097594</v>
+        <v>0.05729855751185153</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1068822608880115</v>
+        <v>0.113651832455585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2290,19 +2290,19 @@
         <v>24107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17668</v>
+        <v>17749</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32217</v>
+        <v>32234</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05568970322606377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04081415794403986</v>
+        <v>0.04100277524406017</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07442390942858959</v>
+        <v>0.07446434902767786</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>16921</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11446</v>
+        <v>11264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24468</v>
+        <v>23584</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08227483949622877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05565235927075831</v>
+        <v>0.0547688263633686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1189711797702927</v>
+        <v>0.1146709608335596</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -2340,19 +2340,19 @@
         <v>50103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42485</v>
+        <v>42009</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60121</v>
+        <v>58719</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2205111586338316</v>
+        <v>0.2205111586338315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1869804443587175</v>
+        <v>0.1848885638127238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2646004438619648</v>
+        <v>0.2584274585039176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>144</v>
@@ -2361,19 +2361,19 @@
         <v>67024</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56432</v>
+        <v>57026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77677</v>
+        <v>78960</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.154833898884124</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.130365379463132</v>
+        <v>0.1317365446255173</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1794423349357275</v>
+        <v>0.1824066968553177</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>180332</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>172152</v>
+        <v>171358</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>187308</v>
+        <v>187432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.876823995750014</v>
+        <v>0.8768239957500141</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8370484013826128</v>
+        <v>0.8331890867436085</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9107455146594288</v>
+        <v>0.9113453644892283</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>325</v>
@@ -2411,19 +2411,19 @@
         <v>154465</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>144257</v>
+        <v>143935</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>163403</v>
+        <v>164352</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6798184639800947</v>
+        <v>0.6798184639800945</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6348905284458317</v>
+        <v>0.6334756953113487</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7191543104422717</v>
+        <v>0.7233311076376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>567</v>
@@ -2432,19 +2432,19 @@
         <v>334796</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>321413</v>
+        <v>322605</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>347534</v>
+        <v>347416</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7734174802364722</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7425018685115464</v>
+        <v>0.7452536682948282</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8028429718404281</v>
+        <v>0.802571431256565</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>6177</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2878</v>
+        <v>3086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11006</v>
+        <v>11749</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02284633879094777</v>
+        <v>0.02284633879094778</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01064490258653679</v>
+        <v>0.01141264869808521</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04070870553622927</v>
+        <v>0.04345762439402891</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2557,19 +2557,19 @@
         <v>12802</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8677</v>
+        <v>8208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18804</v>
+        <v>18888</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04861303520596833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03294817908279106</v>
+        <v>0.03116822549376012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07140301477524505</v>
+        <v>0.07172412703011592</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -2578,19 +2578,19 @@
         <v>18979</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12984</v>
+        <v>13190</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26610</v>
+        <v>26500</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03556022949779885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.024327557862315</v>
+        <v>0.02471455020602786</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04985795189377633</v>
+        <v>0.04965239850778377</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>9035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5150</v>
+        <v>5314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14845</v>
+        <v>15348</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03341847768621559</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01904908196434918</v>
+        <v>0.01965571280523536</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05490719482840324</v>
+        <v>0.05676654002917197</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -2628,19 +2628,19 @@
         <v>25995</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18729</v>
+        <v>19572</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35672</v>
+        <v>34548</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09871160537295118</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07112098011103395</v>
+        <v>0.07432148921687858</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1354575937894469</v>
+        <v>0.1311888846409725</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -2649,19 +2649,19 @@
         <v>35030</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27073</v>
+        <v>26449</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46187</v>
+        <v>44883</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06563563412516475</v>
+        <v>0.06563563412516478</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05072683315599122</v>
+        <v>0.04955704508772273</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08654037319171279</v>
+        <v>0.0840957983949564</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>62448</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>51267</v>
+        <v>50272</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>76059</v>
+        <v>75341</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2309774325960419</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1896200151490377</v>
+        <v>0.1859402288549764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2813194253338107</v>
+        <v>0.2786648375487945</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>124</v>
@@ -2699,19 +2699,19 @@
         <v>65666</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>55111</v>
+        <v>55244</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>76864</v>
+        <v>77361</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2493523308129773</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2092713109377642</v>
+        <v>0.209778788620681</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2918768136220775</v>
+        <v>0.2937642852429246</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>207</v>
@@ -2720,19 +2720,19 @@
         <v>128114</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>111144</v>
+        <v>112359</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>144646</v>
+        <v>146858</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2400440371741687</v>
+        <v>0.2400440371741688</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.208248268693002</v>
+        <v>0.21052401177257</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2710192767061657</v>
+        <v>0.2751653033266642</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>192705</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178971</v>
+        <v>179249</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>204949</v>
+        <v>206526</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7127577509267946</v>
+        <v>0.7127577509267949</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6619589946565603</v>
+        <v>0.6629877153644671</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7580459412548243</v>
+        <v>0.7638789776498409</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>264</v>
@@ -2770,19 +2770,19 @@
         <v>158882</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>146879</v>
+        <v>146680</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>171157</v>
+        <v>170873</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6033230286081032</v>
+        <v>0.6033230286081033</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5577424848137952</v>
+        <v>0.5569871536252454</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6499358305498949</v>
+        <v>0.6488552168620697</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>527</v>
@@ -2791,19 +2791,19 @@
         <v>351587</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>331728</v>
+        <v>331931</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>370192</v>
+        <v>369203</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6587600992028674</v>
+        <v>0.6587600992028676</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6215517185688394</v>
+        <v>0.6219305721043961</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.693619321256999</v>
+        <v>0.6917672235504236</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>8914</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3850</v>
+        <v>4311</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16437</v>
+        <v>17072</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01254949037176152</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005420684918154524</v>
+        <v>0.006069120030297194</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02314136113399124</v>
+        <v>0.02403461560182695</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>67</v>
@@ -2916,19 +2916,19 @@
         <v>52498</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39427</v>
+        <v>41004</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>66141</v>
+        <v>67165</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06859351580835803</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05151477285659593</v>
+        <v>0.0535752113567094</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08641857105125644</v>
+        <v>0.08775777073804225</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -2937,19 +2937,19 @@
         <v>61412</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>48761</v>
+        <v>47394</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>80389</v>
+        <v>76255</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.04161703040123007</v>
+        <v>0.04161703040123008</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03304383238230729</v>
+        <v>0.03211727538782608</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05447750046859852</v>
+        <v>0.05167610414647246</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>27866</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17738</v>
+        <v>16683</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44506</v>
+        <v>44488</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03923130422808768</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02497292240999671</v>
+        <v>0.02348723916200234</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06265803443329446</v>
+        <v>0.06263389841359999</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>58</v>
@@ -2987,19 +2987,19 @@
         <v>44823</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>34537</v>
+        <v>33221</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>59188</v>
+        <v>57503</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05856479851332316</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04512526196467925</v>
+        <v>0.04340609398851632</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07733422892700052</v>
+        <v>0.07513316196726619</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>79</v>
@@ -3008,19 +3008,19 @@
         <v>72688</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>57872</v>
+        <v>57238</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>93490</v>
+        <v>90422</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04925872668155433</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03921838877845845</v>
+        <v>0.03878818945022428</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06335528543327761</v>
+        <v>0.06127637249598217</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>151583</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>126741</v>
+        <v>126979</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>178669</v>
+        <v>177397</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2134087230349792</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1784345590433388</v>
+        <v>0.1787694208553137</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2515429872165685</v>
+        <v>0.249751175998133</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>309</v>
@@ -3058,19 +3058,19 @@
         <v>255892</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>232677</v>
+        <v>232911</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>280810</v>
+        <v>282480</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3343456515487661</v>
+        <v>0.3343456515487659</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.304013352443316</v>
+        <v>0.3043192958021791</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3669034639837768</v>
+        <v>0.3690856569477662</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>430</v>
@@ -3079,19 +3079,19 @@
         <v>407474</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>372736</v>
+        <v>373302</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>442056</v>
+        <v>444722</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2761333218344075</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2525919368937151</v>
+        <v>0.2529758807216583</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2995684948833994</v>
+        <v>0.3013750708161914</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>521931</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>490950</v>
+        <v>494905</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>548095</v>
+        <v>549326</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7348104823651717</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6911943014119262</v>
+        <v>0.6967618902770744</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7716465483982917</v>
+        <v>0.7733795268578024</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>519</v>
@@ -3129,19 +3129,19 @@
         <v>412138</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>388047</v>
+        <v>385543</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>436822</v>
+        <v>437820</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5384960341295528</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5070186214104866</v>
+        <v>0.5037471779406483</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5707475929473758</v>
+        <v>0.5720506985151345</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>959</v>
@@ -3150,19 +3150,19 @@
         <v>934069</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>898423</v>
+        <v>893158</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>973544</v>
+        <v>971976</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6329909210828081</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6088348915556704</v>
+        <v>0.6052670861096743</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6597422864447249</v>
+        <v>0.6586799182631702</v>
       </c>
     </row>
     <row r="38">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5665</v>
+        <v>5808</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001436915547425694</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0071081582803107</v>
+        <v>0.007287462451084446</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>29</v>
@@ -3275,19 +3275,19 @@
         <v>22340</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>15040</v>
+        <v>14926</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>33343</v>
+        <v>33068</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02707615018793941</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0182291478720857</v>
+        <v>0.01809048445622572</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04041180684746001</v>
+        <v>0.04007802636184201</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>30</v>
@@ -3296,19 +3296,19 @@
         <v>23485</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>15535</v>
+        <v>15290</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>34407</v>
+        <v>34893</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01447900237206545</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.009577327823793582</v>
+        <v>0.009426881094929038</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02121240126096086</v>
+        <v>0.02151238326586627</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>7215</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3449</v>
+        <v>3250</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14550</v>
+        <v>13917</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009053854079940745</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004327555132767655</v>
+        <v>0.004078736339878362</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01825762786761288</v>
+        <v>0.01746299730684545</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>21</v>
@@ -3346,19 +3346,19 @@
         <v>15110</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>9867</v>
+        <v>9514</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23222</v>
+        <v>23186</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01831331482143141</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01195903543491338</v>
+        <v>0.01153060797513839</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02814524506152015</v>
+        <v>0.02810109834100039</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>29</v>
@@ -3367,19 +3367,19 @@
         <v>22325</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15402</v>
+        <v>15441</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32606</v>
+        <v>31935</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01376392802064419</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00949572550718894</v>
+        <v>0.009519393775117213</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02010218969868335</v>
+        <v>0.01968858366928121</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>48850</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36329</v>
+        <v>36195</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64027</v>
+        <v>62814</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06129817526449392</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04558614927535495</v>
+        <v>0.04541758107982553</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08034250584764474</v>
+        <v>0.07881995989779667</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>117</v>
@@ -3417,19 +3417,19 @@
         <v>85162</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>71768</v>
+        <v>69839</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>101309</v>
+        <v>101011</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1032166495305074</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08698327903356029</v>
+        <v>0.08464468199481329</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1227868989022092</v>
+        <v>0.1224260379765068</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>167</v>
@@ -3438,19 +3438,19 @@
         <v>134012</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>115248</v>
+        <v>114154</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>156913</v>
+        <v>153344</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08262113550878696</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07105246446206756</v>
+        <v>0.07037828275855795</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09673999648044145</v>
+        <v>0.09453976084592289</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>739720</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>723185</v>
+        <v>725100</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>752703</v>
+        <v>753232</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.9282110551081398</v>
+        <v>0.9282110551081397</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9074619636213492</v>
+        <v>0.9098652505044765</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9445019413143717</v>
+        <v>0.945165535257661</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>887</v>
@@ -3488,19 +3488,19 @@
         <v>702467</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>682110</v>
+        <v>683066</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>718083</v>
+        <v>718082</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.8513938854601218</v>
+        <v>0.8513938854601215</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8267213968596777</v>
+        <v>0.827879295603082</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8703208844807889</v>
+        <v>0.870319494190569</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1589</v>
@@ -3509,19 +3509,19 @@
         <v>1442187</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1419690</v>
+        <v>1419335</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1463272</v>
+        <v>1464258</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8891359340985036</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8752661616798869</v>
+        <v>0.8750467226322558</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9021347053717398</v>
+        <v>0.9027429516416675</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>39908</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>229</v>
@@ -3634,19 +3634,19 @@
         <v>164366</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>143410</v>
+        <v>144336</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>191484</v>
+        <v>188905</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.04421879642763867</v>
+        <v>0.04421879642763868</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03858099857924879</v>
+        <v>0.03882998942682016</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05151414906088121</v>
+        <v>0.05082023931515924</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>271</v>
@@ -3655,19 +3655,19 @@
         <v>204275</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>180310</v>
+        <v>177342</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>234266</v>
+        <v>230979</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02822980479224304</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02491796024695145</v>
+        <v>0.02450780826329259</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03237443274409432</v>
+        <v>0.03192025372255397</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>91867</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>73089</v>
+        <v>72196</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>112643</v>
+        <v>114826</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02610581770860988</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02076969624177138</v>
+        <v>0.02051601383538845</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03200977038386563</v>
+        <v>0.03263000778554936</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>311</v>
@@ -3705,19 +3705,19 @@
         <v>204432</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>181001</v>
+        <v>180803</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>231969</v>
+        <v>228870</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.05499755791139408</v>
+        <v>0.05499755791139409</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.04869388833423685</v>
+        <v>0.04864077407019943</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.06240550997747225</v>
+        <v>0.06157199699946698</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>401</v>
@@ -3726,19 +3726,19 @@
         <v>296299</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>266256</v>
+        <v>264413</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>329111</v>
+        <v>329081</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.04094717038960494</v>
+        <v>0.04094717038960496</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03679533549858605</v>
+        <v>0.03654058706545119</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04548158218692439</v>
+        <v>0.04547746360612297</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>586408</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>544011</v>
+        <v>542902</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>641615</v>
+        <v>638092</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1666398371824442</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1545918764826306</v>
+        <v>0.1542765665435555</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1823279217255855</v>
+        <v>0.1813267745519235</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1389</v>
@@ -3776,19 +3776,19 @@
         <v>948117</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>907100</v>
+        <v>899825</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>998544</v>
+        <v>991458</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2550677596760471</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2440330741996976</v>
+        <v>0.2420759182082962</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2686338899319402</v>
+        <v>0.2667276891170468</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1941</v>
@@ -3797,19 +3797,19 @@
         <v>1534525</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1468429</v>
+        <v>1465996</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1606727</v>
+        <v>1602129</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.212064237906108</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2029300682649942</v>
+        <v>0.2025937884606903</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2220421676699646</v>
+        <v>0.2214067018038248</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>2800833</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2742844</v>
+        <v>2745313</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2849058</v>
+        <v>2851510</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.7959136306358409</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.7794349545605586</v>
+        <v>0.7801365590144244</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8096179431022933</v>
+        <v>0.8103145223560215</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3411</v>
@@ -3847,19 +3847,19 @@
         <v>2400202</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2345251</v>
+        <v>2346307</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2448851</v>
+        <v>2451901</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.64571588598492</v>
+        <v>0.6457158859849201</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6309325529150348</v>
+        <v>0.6312167658141088</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6588036384081315</v>
+        <v>0.6596241972483212</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6088</v>
@@ -3868,19 +3868,19 @@
         <v>5201035</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>5124835</v>
+        <v>5122147</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>5278647</v>
+        <v>5271688</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.7187587869120441</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.7082283685316715</v>
+        <v>0.7078568982485525</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.7294844726102714</v>
+        <v>0.7285227549250574</v>
       </c>
     </row>
     <row r="48">
